--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCBD187-8C60-461B-884C-5B2C5AEEE17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD161451-157B-438B-BF94-515F8E6E7132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>{{Exports.RewardHistoryContents.LuckyNumber.Name}}</t>
+  </si>
+  <si>
+    <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>{{Exports.Revenue}}</t>
   </si>
 </sst>
 </file>
@@ -192,6 +198,12 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -203,12 +215,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,17 +510,17 @@
     <col min="2" max="2" width="4.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
-    <col min="5" max="8" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="10" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
@@ -524,42 +530,52 @@
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C1:D1"/>

--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD161451-157B-438B-BF94-515F8E6E7132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6719A65-7FB7-455A-BB4A-58BB71DA4935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>{{Exports.Revenue}}</t>
+  </si>
+  <si>
+    <t>Mã số giải thưởng</t>
+  </si>
+  <si>
+    <t>{{Exports.RewardHistoryContents.LuckyNumber.Code}}</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -191,6 +197,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,79 +520,86 @@
     <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
     <col min="5" max="10" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="18.75">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6719A65-7FB7-455A-BB4A-58BB71DA4935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962EC1C6-4381-47EC-8F1C-2DFC45AAD1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,35 +195,35 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -510,7 +510,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,34 +520,34 @@
     <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
     <col min="5" max="10" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="43.28515625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -557,34 +557,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" ht="30">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962EC1C6-4381-47EC-8F1C-2DFC45AAD1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D63F8-B9EB-40E5-BC49-673D008335C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LuckyNumber" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>{{Exports.RewardHistoryContents.LuckyNumber.Code}}</t>
+  </si>
+  <si>
+    <t>Ngày thực hiện</t>
+  </si>
+  <si>
+    <t>{{Exports.Date}}</t>
   </si>
 </sst>
 </file>
@@ -198,16 +204,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,13 +219,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,34 +525,37 @@
     <col min="2" max="2" width="4.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
-    <col min="5" max="10" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" style="3" customWidth="1"/>
+    <col min="5" max="8" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21" style="3" customWidth="1"/>
     <col min="13" max="13" width="43.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="18.75">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
@@ -556,36 +565,42 @@
       <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" ht="45">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D63F8-B9EB-40E5-BC49-673D008335C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2CB31A-F9CD-4E96-8CED-EC6843357CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LuckyNumber" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>{{Exports.RewardHistoryContents.LuckyNumber.Code}}</t>
   </si>
   <si>
-    <t>Ngày thực hiện</t>
-  </si>
-  <si>
     <t>{{Exports.Date}}</t>
+  </si>
+  <si>
+    <t>Ngày quay thưởng</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,7 +531,7 @@
     <col min="11" max="11" width="22.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="21" style="3" customWidth="1"/>
     <col min="13" max="13" width="43.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45">
@@ -600,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2CB31A-F9CD-4E96-8CED-EC6843357CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E79A3E-DF34-4C48-A195-0D2358BC992E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LuckyNumber" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>{{Exports.RewardHistoryContents.LuckyNumber.Code}}</t>
   </si>
   <si>
-    <t>{{Exports.Date}}</t>
-  </si>
-  <si>
     <t>Ngày quay thưởng</t>
+  </si>
+  <si>
+    <t>{{Exports.RewardHistoryContents.LuckyNumber.UsedAt}}</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45">
@@ -600,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E79A3E-DF34-4C48-A195-0D2358BC992E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE4850-3230-406B-B60E-6D0910C9D694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>Ngày quay thưởng</t>
   </si>
   <si>
-    <t>{{Exports.RewardHistoryContents.LuckyNumber.UsedAt}}</t>
+    <t>{{Exports.RewardHistoryContents.LuckyNumber.eUsedAt}}</t>
   </si>
 </sst>
 </file>

--- a/DMS/Templates/Lucky_Number_Store_Report.xlsx
+++ b/DMS/Templates/Lucky_Number_Store_Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dotNet\DMS\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE4850-3230-406B-B60E-6D0910C9D694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05B19F-49C2-4DEA-BCF1-4B0B0692A81D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LuckyNumber" sheetId="1" r:id="rId1"/>
+    <sheet name="Giải thưởng" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
